--- a/design/enum.common.xlsx
+++ b/design/enum.common.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7A4A0-F80E-4FF2-95BE-9C7CD439A62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF0F22-FAA5-453D-BF18-0A4230C72D40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Direction" sheetId="3" r:id="rId1"/>
+    <sheet name="Axis" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Left</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +57,22 @@
   </si>
   <si>
     <t>아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,4 +482,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566A2A0-7218-4EA8-B206-75806184E131}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/enum.common.xlsx
+++ b/design/enum.common.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF0F22-FAA5-453D-BF18-0A4230C72D40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20820C5B-E914-4B87-A13E-F3F124CF60EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Direction" sheetId="3" r:id="rId1"/>
     <sheet name="Axis" sheetId="4" r:id="rId2"/>
+    <sheet name="StatType" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Left</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +74,70 @@
   </si>
   <si>
     <t>Y축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566A2A0-7218-4EA8-B206-75806184E131}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -515,4 +580,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1259BE-EBF2-4A99-B9CC-580FDFB79D52}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/enum.common.xlsx
+++ b/design/enum.common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20820C5B-E914-4B87-A13E-F3F124CF60EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8189C0A6-E77A-4DC9-BEEF-3787D58DFFE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Direction" sheetId="3" r:id="rId1"/>
@@ -502,43 +502,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -551,27 +551,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566A2A0-7218-4EA8-B206-75806184E131}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -584,10 +584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1259BE-EBF2-4A99-B9CC-580FDFB79D52}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,67 +596,67 @@
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
     </row>
